--- a/backend/utils/registrations.xlsx
+++ b/backend/utils/registrations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>Fourth Year</t>
+  </si>
+  <si>
+    <t>saharsh.khalokar@walchandsangli.ac.in</t>
+  </si>
+  <si>
+    <t>First Year</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
@@ -453,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -558,6 +567,58 @@
       </c>
       <c r="H4" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
